--- a/static/excel/业绩列表模版.xlsx
+++ b/static/excel/业绩列表模版.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whw/ken/crm/我们的crm资料/prd文档/业绩管理/模版/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pure/Documents/code/pig-ui/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="460" windowWidth="28800" windowHeight="16760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,15 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$4:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -257,7 +260,7 @@
   </si>
   <si>
     <t>订单打款时间</t>
-    <rPh sb="0" eb="56">
+    <rPh sb="0" eb="6">
       <t>chan p</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,8 +269,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -323,38 +326,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -364,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,23 +361,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,13 +696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="1"/>
@@ -731,143 +715,159 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" ht="19">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" ht="20" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N8" s="2">
         <v>100</v>
       </c>
     </row>
@@ -891,24 +891,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -927,37 +927,37 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
